--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_연도별모음_문제.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,129 +463,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ㄱ. 백제 부흥 운동 
+ㄴ. 신라 품주 설치 
+ㄷ. 전연의 고구려 침입</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20221210</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ㄱ. 고구려 평양성 천도 
+ㄴ. 신라 품주를 집사부 창부로 분리 
+ㄷ. 백제 부흥세력의 백강 전투 패배</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20221210</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ㄱ. 신라 김유신을 중심으로 향도 조직 
 ㄴ. 신라 위화부 설치 
 ㄷ. 고구려 온달 신라 아단성에서 전사</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>20221208</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ㄱ. 신라 아시촌 소경 설치 
-ㄴ. 신라 단양 적성비 건립 
-ㄷ. 백제 겸익 인도의 율장 번역</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>20221208</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ㄱ. 백제 마한 전역 통합 
-ㄴ. 통일신라 녹읍 폐지 
-ㄷ. 통일신라 서시 남시 증설</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>20221208</v>
+        <v>20221210</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ㄱ. 신라 분황사 창건 및 모전석탑 건립 
-ㄴ. 고구려 천리장성 축조 시작 
-ㄷ. 대가야 정복</t>
+          <t>ㄱ. 통일신라 대공의 난 발발 
+ㄴ. 신라 청주 거로현을 국학생의 녹읍으로 사용 
+ㄷ. 통일신라 장보고의 난</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>20221208</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ㄱ. 신라 나당 동맹 체결 
-ㄴ. 신라 당나라와 마전 적성 전투 
-ㄷ. 후고구려 철원으로 수도 이전</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20221208</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>07</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20221210</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>05</t>
         </is>
       </c>
     </row>
